--- a/biology/Histoire de la zoologie et de la botanique/Michael_James_Tyler/Michael_James_Tyler.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Michael_James_Tyler/Michael_James_Tyler.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Michael James Tyler, né le 27 mars 1937 et mort le 26 mars 2020 à Adélaïde[1],[2], est un herpétologiste australien.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Michael James Tyler, né le 27 mars 1937 et mort le 26 mars 2020 à Adélaïde est un herpétologiste australien.
 Il travaille à l'Université d'Adelaide dans le "Department of Environmental Biology".
 Il est responsable d'Applied Herpetology.
 </t>
@@ -513,7 +525,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>(en) Michael James Tyler, Australian frogs, Frenchs Forest, N.S.W. : New Holland Publishers, 1999  (ISBN 1-876334-20-7)
 (en) Michael James Tyler, Frogs are cannibals, Crows Nest : Allen &amp; Unwin, 2004  (ISBN 1-74114-271-7)
@@ -545,7 +559,9 @@
           <t>Taxons nommés en son honneur</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Litoria michaeltyleri
 Litoria tyleri
@@ -577,7 +593,9 @@
           <t>Quelques Taxons décrits</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Arenophryne
